--- a/Questions & Problems/FINAL450.xlsx
+++ b/Questions & Problems/FINAL450.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://stevens0-my.sharepoint.com/personal/nharia_stevens_edu/Documents/Stevens after arrival/Course &amp; Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://stevens0-my.sharepoint.com/personal/nharia_stevens_edu/Documents/Stevens after arrival/Course &amp; Data/DSA/Questions &amp; Problems/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="13" documentId="8_{FE247D34-8291-49C5-B746-F304B32E5319}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{17C0BB99-BC67-4782-8FBF-D9629240A4EA}"/>
+  <xr:revisionPtr revIDLastSave="15" documentId="8_{FE247D34-8291-49C5-B746-F304B32E5319}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00349CD9-E6BB-477B-BA04-88733E8D1586}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -1871,8 +1871,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:C481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A430" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="H348" sqref="H348"/>
+    <sheetView tabSelected="1" topLeftCell="A136" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="C144" sqref="C144"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -3372,8 +3372,8 @@
       <c r="B144" s="6" t="s">
         <v>140</v>
       </c>
-      <c r="C144" s="4" t="s">
-        <v>4</v>
+      <c r="C144" s="11" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="145" spans="1:3" ht="21">

--- a/Questions & Problems/FINAL450.xlsx
+++ b/Questions & Problems/FINAL450.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://stevens0-my.sharepoint.com/personal/nharia_stevens_edu/Documents/Stevens after arrival/Course &amp; Data/DSA/Questions &amp; Problems/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="15" documentId="8_{FE247D34-8291-49C5-B746-F304B32E5319}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00349CD9-E6BB-477B-BA04-88733E8D1586}"/>
+  <xr:revisionPtr revIDLastSave="23" documentId="8_{FE247D34-8291-49C5-B746-F304B32E5319}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{16D2123B-017A-413B-B2F0-9472E7B84F77}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
+    <workbookView xWindow="28890" yWindow="4200" windowWidth="15855" windowHeight="10845" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1352" uniqueCount="466">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1352" uniqueCount="467">
   <si>
     <t>Questions by Love Babbar:</t>
   </si>
@@ -1423,6 +1423,9 @@
   </si>
   <si>
     <t>Yes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DO </t>
   </si>
 </sst>
 </file>
@@ -1871,8 +1874,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:C481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A136" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="C144" sqref="C144"/>
+    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="C62" sqref="C62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -2439,8 +2442,8 @@
       <c r="B56" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="C56" s="4" t="s">
-        <v>4</v>
+      <c r="C56" s="11" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="21">
@@ -2450,8 +2453,8 @@
       <c r="B57" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="C57" s="4" t="s">
-        <v>4</v>
+      <c r="C57" s="11" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="21">
@@ -2461,8 +2464,8 @@
       <c r="B58" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="C58" s="4" t="s">
-        <v>4</v>
+      <c r="C58" s="11" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="21">
@@ -2506,7 +2509,7 @@
         <v>60</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>4</v>
+        <v>466</v>
       </c>
     </row>
     <row r="63" spans="1:3" ht="21">

--- a/Questions & Problems/FINAL450.xlsx
+++ b/Questions & Problems/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://stevens0-my.sharepoint.com/personal/nharia_stevens_edu/Documents/Stevens after arrival/Course &amp; Data/DSA/Questions &amp; Problems/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="23" documentId="8_{FE247D34-8291-49C5-B746-F304B32E5319}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{16D2123B-017A-413B-B2F0-9472E7B84F77}"/>
+  <xr:revisionPtr revIDLastSave="28" documentId="8_{FE247D34-8291-49C5-B746-F304B32E5319}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{27EC09B9-8DF3-4D7E-ACA8-CDE4CED8DA85}"/>
   <bookViews>
     <workbookView xWindow="28890" yWindow="4200" windowWidth="15855" windowHeight="10845" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1352" uniqueCount="467">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1352" uniqueCount="468">
   <si>
     <t>Questions by Love Babbar:</t>
   </si>
@@ -1426,6 +1426,9 @@
   </si>
   <si>
     <t xml:space="preserve">DO </t>
+  </si>
+  <si>
+    <t>INCOMPLETE</t>
   </si>
 </sst>
 </file>
@@ -1874,8 +1877,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:C481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="C62" sqref="C62"/>
+    <sheetView tabSelected="1" topLeftCell="A283" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="C311" sqref="C311"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -2094,8 +2097,8 @@
       <c r="B22" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="C22" s="4" t="s">
-        <v>4</v>
+      <c r="C22" s="11" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="21">
@@ -2105,8 +2108,8 @@
       <c r="B23" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="C23" s="4" t="s">
-        <v>4</v>
+      <c r="C23" s="11" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="21">
@@ -5130,7 +5133,7 @@
         <v>300</v>
       </c>
       <c r="C310" s="4" t="s">
-        <v>4</v>
+        <v>467</v>
       </c>
     </row>
     <row r="311" spans="1:3" ht="21">

--- a/Questions & Problems/FINAL450.xlsx
+++ b/Questions & Problems/FINAL450.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://stevens0-my.sharepoint.com/personal/nharia_stevens_edu/Documents/Stevens after arrival/Course &amp; Data/DSA/Questions &amp; Problems/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\neelh\OneDrive - stevens.edu\Stevens after arrival\Course &amp; Data\DSA\Questions &amp; Problems\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="28" documentId="8_{FE247D34-8291-49C5-B746-F304B32E5319}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{27EC09B9-8DF3-4D7E-ACA8-CDE4CED8DA85}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31FA0BCB-19AC-41F6-970D-710C5D28BB10}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28890" yWindow="4200" windowWidth="15855" windowHeight="10845" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1877,8 +1877,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:C481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A283" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="C311" sqref="C311"/>
+    <sheetView tabSelected="1" topLeftCell="A88" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="C108" sqref="C108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -2956,8 +2956,8 @@
       <c r="B104" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="C104" s="4" t="s">
-        <v>4</v>
+      <c r="C104" s="11" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="105" spans="1:3" ht="21">
@@ -2967,8 +2967,8 @@
       <c r="B105" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="C105" s="4" t="s">
-        <v>4</v>
+      <c r="C105" s="11" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="106" spans="1:3" ht="21">
@@ -2989,8 +2989,8 @@
       <c r="B107" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="C107" s="4" t="s">
-        <v>4</v>
+      <c r="C107" s="11" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="108" spans="1:3" ht="21">
@@ -3000,8 +3000,8 @@
       <c r="B108" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="C108" s="4" t="s">
-        <v>4</v>
+      <c r="C108" s="11" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="109" spans="1:3" ht="21">

--- a/Questions & Problems/FINAL450.xlsx
+++ b/Questions & Problems/FINAL450.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\neelh\OneDrive - stevens.edu\Stevens after arrival\Course &amp; Data\DSA\Questions &amp; Problems\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://stevens0-my.sharepoint.com/personal/nharia_stevens_edu/Documents/Stevens after arrival/Course &amp; Data/DSA/Questions &amp; Problems/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31FA0BCB-19AC-41F6-970D-710C5D28BB10}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{31FA0BCB-19AC-41F6-970D-710C5D28BB10}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{54C0F4BA-E933-4BF9-98E6-C5039D573DCD}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
+    <workbookView xWindow="43365" yWindow="0" windowWidth="17280" windowHeight="8970" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1877,8 +1877,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:C481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A88" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="C108" sqref="C108"/>
+    <sheetView tabSelected="1" topLeftCell="A319" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -3165,8 +3165,8 @@
       <c r="B123" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="C123" s="4" t="s">
-        <v>4</v>
+      <c r="C123" s="11" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="124" spans="1:3" ht="21">

--- a/Questions & Problems/FINAL450.xlsx
+++ b/Questions & Problems/FINAL450.xlsx
@@ -1,20 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://stevens0-my.sharepoint.com/personal/nharia_stevens_edu/Documents/Stevens after arrival/Course &amp; Data/DSA/Questions &amp; Problems/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{31FA0BCB-19AC-41F6-970D-710C5D28BB10}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{54C0F4BA-E933-4BF9-98E6-C5039D573DCD}"/>
+  <xr:revisionPtr revIDLastSave="10" documentId="13_ncr:1_{31FA0BCB-19AC-41F6-970D-710C5D28BB10}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{730C42C0-FE4B-4F1A-8C22-B3C427B3D532}"/>
   <bookViews>
-    <workbookView xWindow="43365" yWindow="0" windowWidth="17280" windowHeight="8970" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
+    <workbookView xWindow="-21276" yWindow="720" windowWidth="21600" windowHeight="11388" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$C$5:$C$481</definedName>
+  </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -216,9 +219,6 @@
     <t>Find Longest Recurring Subsequence in String</t>
   </si>
   <si>
-    <t>Print all Subsequences of a string.</t>
-  </si>
-  <si>
     <t>Print all the permutations of the given string</t>
   </si>
   <si>
@@ -1429,6 +1429,9 @@
   </si>
   <si>
     <t>INCOMPLETE</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -1877,25 +1880,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:C481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A319" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
+  <sheetFormatPr defaultColWidth="11.25" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="28.5" customWidth="1"/>
     <col min="2" max="2" width="123" customWidth="1"/>
     <col min="3" max="3" width="27.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="24.6">
+    <row r="1" spans="1:3" ht="26.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="B2" s="10" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="21">
@@ -1922,7 +1925,7 @@
         <v>6</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="21">
@@ -1933,7 +1936,7 @@
         <v>7</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="21">
@@ -1944,7 +1947,7 @@
         <v>8</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="21">
@@ -1955,7 +1958,7 @@
         <v>9</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="21">
@@ -1966,7 +1969,7 @@
         <v>10</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="21">
@@ -1988,7 +1991,7 @@
         <v>12</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="21">
@@ -1999,7 +2002,7 @@
         <v>13</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="21">
@@ -2098,7 +2101,7 @@
         <v>22</v>
       </c>
       <c r="C22" s="11" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="21">
@@ -2109,7 +2112,7 @@
         <v>23</v>
       </c>
       <c r="C23" s="11" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="21">
@@ -2219,7 +2222,7 @@
         <v>33</v>
       </c>
       <c r="C33" s="11" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="21">
@@ -2307,7 +2310,7 @@
         <v>41</v>
       </c>
       <c r="C41" s="11" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="21">
@@ -2446,7 +2449,7 @@
         <v>54</v>
       </c>
       <c r="C56" s="11" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="21">
@@ -2457,7 +2460,7 @@
         <v>55</v>
       </c>
       <c r="C57" s="11" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="21">
@@ -2468,7 +2471,7 @@
         <v>56</v>
       </c>
       <c r="C58" s="11" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="21">
@@ -2512,7 +2515,7 @@
         <v>60</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="63" spans="1:3" ht="21">
@@ -2542,7 +2545,7 @@
         <v>53</v>
       </c>
       <c r="B65" s="6" t="s">
-        <v>63</v>
+        <v>467</v>
       </c>
       <c r="C65" s="4" t="s">
         <v>4</v>
@@ -2553,7 +2556,7 @@
         <v>53</v>
       </c>
       <c r="B66" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C66" s="4" t="s">
         <v>4</v>
@@ -2564,7 +2567,7 @@
         <v>53</v>
       </c>
       <c r="B67" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C67" s="4" t="s">
         <v>4</v>
@@ -2575,7 +2578,7 @@
         <v>53</v>
       </c>
       <c r="B68" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C68" s="4" t="s">
         <v>4</v>
@@ -2586,7 +2589,7 @@
         <v>53</v>
       </c>
       <c r="B69" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C69" s="4" t="s">
         <v>4</v>
@@ -2597,7 +2600,7 @@
         <v>53</v>
       </c>
       <c r="B70" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C70" s="4" t="s">
         <v>4</v>
@@ -2608,7 +2611,7 @@
         <v>53</v>
       </c>
       <c r="B71" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C71" s="4" t="s">
         <v>4</v>
@@ -2619,7 +2622,7 @@
         <v>53</v>
       </c>
       <c r="B72" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C72" s="4" t="s">
         <v>4</v>
@@ -2630,7 +2633,7 @@
         <v>53</v>
       </c>
       <c r="B73" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C73" s="4" t="s">
         <v>4</v>
@@ -2641,7 +2644,7 @@
         <v>53</v>
       </c>
       <c r="B74" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C74" s="4" t="s">
         <v>4</v>
@@ -2652,7 +2655,7 @@
         <v>53</v>
       </c>
       <c r="B75" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C75" s="4" t="s">
         <v>4</v>
@@ -2663,7 +2666,7 @@
         <v>53</v>
       </c>
       <c r="B76" s="6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C76" s="4" t="s">
         <v>4</v>
@@ -2674,7 +2677,7 @@
         <v>53</v>
       </c>
       <c r="B77" s="6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C77" s="4" t="s">
         <v>4</v>
@@ -2685,7 +2688,7 @@
         <v>53</v>
       </c>
       <c r="B78" s="6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C78" s="4" t="s">
         <v>4</v>
@@ -2696,7 +2699,7 @@
         <v>53</v>
       </c>
       <c r="B79" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C79" s="4" t="s">
         <v>4</v>
@@ -2707,7 +2710,7 @@
         <v>53</v>
       </c>
       <c r="B80" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C80" s="4" t="s">
         <v>4</v>
@@ -2718,7 +2721,7 @@
         <v>53</v>
       </c>
       <c r="B81" s="6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C81" s="4" t="s">
         <v>4</v>
@@ -2729,7 +2732,7 @@
         <v>53</v>
       </c>
       <c r="B82" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C82" s="4" t="s">
         <v>4</v>
@@ -2740,7 +2743,7 @@
         <v>53</v>
       </c>
       <c r="B83" s="6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C83" s="4" t="s">
         <v>4</v>
@@ -2751,7 +2754,7 @@
         <v>53</v>
       </c>
       <c r="B84" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C84" s="4" t="s">
         <v>4</v>
@@ -2762,7 +2765,7 @@
         <v>53</v>
       </c>
       <c r="B85" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C85" s="4" t="s">
         <v>4</v>
@@ -2773,7 +2776,7 @@
         <v>53</v>
       </c>
       <c r="B86" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C86" s="4" t="s">
         <v>4</v>
@@ -2784,7 +2787,7 @@
         <v>53</v>
       </c>
       <c r="B87" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C87" s="4" t="s">
         <v>4</v>
@@ -2795,7 +2798,7 @@
         <v>53</v>
       </c>
       <c r="B88" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C88" s="4" t="s">
         <v>4</v>
@@ -2806,7 +2809,7 @@
         <v>53</v>
       </c>
       <c r="B89" s="6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C89" s="4" t="s">
         <v>4</v>
@@ -2817,7 +2820,7 @@
         <v>53</v>
       </c>
       <c r="B90" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C90" s="4" t="s">
         <v>4</v>
@@ -2828,7 +2831,7 @@
         <v>53</v>
       </c>
       <c r="B91" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C91" s="4" t="s">
         <v>4</v>
@@ -2839,7 +2842,7 @@
         <v>53</v>
       </c>
       <c r="B92" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C92" s="4" t="s">
         <v>4</v>
@@ -2850,7 +2853,7 @@
         <v>53</v>
       </c>
       <c r="B93" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C93" s="4" t="s">
         <v>4</v>
@@ -2861,7 +2864,7 @@
         <v>53</v>
       </c>
       <c r="B94" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C94" s="4" t="s">
         <v>4</v>
@@ -2872,7 +2875,7 @@
         <v>53</v>
       </c>
       <c r="B95" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C95" s="4" t="s">
         <v>4</v>
@@ -2883,7 +2886,7 @@
         <v>53</v>
       </c>
       <c r="B96" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C96" s="4" t="s">
         <v>4</v>
@@ -2894,7 +2897,7 @@
         <v>53</v>
       </c>
       <c r="B97" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C97" s="4" t="s">
         <v>4</v>
@@ -2905,7 +2908,7 @@
         <v>53</v>
       </c>
       <c r="B98" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C98" s="4" t="s">
         <v>4</v>
@@ -2918,21 +2921,21 @@
     </row>
     <row r="101" spans="1:3" ht="21">
       <c r="A101" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="B101" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="B101" s="6" t="s">
-        <v>98</v>
-      </c>
       <c r="C101" s="11" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="102" spans="1:3" ht="21">
       <c r="A102" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B102" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C102" s="4" t="s">
         <v>4</v>
@@ -2940,10 +2943,10 @@
     </row>
     <row r="103" spans="1:3" ht="21">
       <c r="A103" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B103" s="6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C103" s="4" t="s">
         <v>4</v>
@@ -2951,32 +2954,32 @@
     </row>
     <row r="104" spans="1:3" ht="21">
       <c r="A104" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B104" s="6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C104" s="11" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="105" spans="1:3" ht="21">
       <c r="A105" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B105" s="6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C105" s="11" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="106" spans="1:3" ht="21">
       <c r="A106" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B106" s="6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C106" s="4" t="s">
         <v>4</v>
@@ -2984,32 +2987,32 @@
     </row>
     <row r="107" spans="1:3" ht="21">
       <c r="A107" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B107" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C107" s="11" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="108" spans="1:3" ht="21">
       <c r="A108" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B108" s="6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C108" s="11" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="109" spans="1:3" ht="21">
       <c r="A109" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B109" s="6" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C109" s="4" t="s">
         <v>4</v>
@@ -3017,10 +3020,10 @@
     </row>
     <row r="110" spans="1:3" ht="21">
       <c r="A110" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B110" s="6" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C110" s="4" t="s">
         <v>4</v>
@@ -3028,10 +3031,10 @@
     </row>
     <row r="111" spans="1:3" ht="21">
       <c r="A111" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B111" s="6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C111" s="4" t="s">
         <v>4</v>
@@ -3039,10 +3042,10 @@
     </row>
     <row r="112" spans="1:3" ht="21">
       <c r="A112" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B112" s="6" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C112" s="4" t="s">
         <v>4</v>
@@ -3050,10 +3053,10 @@
     </row>
     <row r="113" spans="1:3" ht="21">
       <c r="A113" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B113" s="6" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C113" s="4" t="s">
         <v>4</v>
@@ -3061,10 +3064,10 @@
     </row>
     <row r="114" spans="1:3" ht="21">
       <c r="A114" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B114" s="6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C114" s="4" t="s">
         <v>4</v>
@@ -3072,10 +3075,10 @@
     </row>
     <row r="115" spans="1:3" ht="21">
       <c r="A115" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B115" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C115" s="4" t="s">
         <v>4</v>
@@ -3083,10 +3086,10 @@
     </row>
     <row r="116" spans="1:3" ht="21">
       <c r="A116" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B116" s="6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C116" s="4" t="s">
         <v>4</v>
@@ -3094,10 +3097,10 @@
     </row>
     <row r="117" spans="1:3" ht="21">
       <c r="A117" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B117" s="6" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C117" s="4" t="s">
         <v>4</v>
@@ -3105,10 +3108,10 @@
     </row>
     <row r="118" spans="1:3" ht="21">
       <c r="A118" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B118" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C118" s="4" t="s">
         <v>4</v>
@@ -3116,10 +3119,10 @@
     </row>
     <row r="119" spans="1:3" ht="21">
       <c r="A119" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B119" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C119" s="4" t="s">
         <v>4</v>
@@ -3127,10 +3130,10 @@
     </row>
     <row r="120" spans="1:3" ht="21">
       <c r="A120" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B120" s="6" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C120" s="4" t="s">
         <v>4</v>
@@ -3138,10 +3141,10 @@
     </row>
     <row r="121" spans="1:3" ht="21">
       <c r="A121" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B121" s="6" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C121" s="4" t="s">
         <v>4</v>
@@ -3149,10 +3152,10 @@
     </row>
     <row r="122" spans="1:3" ht="21">
       <c r="A122" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B122" s="6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C122" s="4" t="s">
         <v>4</v>
@@ -3160,21 +3163,21 @@
     </row>
     <row r="123" spans="1:3" ht="21">
       <c r="A123" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B123" s="6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C123" s="11" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="124" spans="1:3" ht="21">
       <c r="A124" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B124" s="6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C124" s="4" t="s">
         <v>4</v>
@@ -3182,10 +3185,10 @@
     </row>
     <row r="125" spans="1:3" ht="21">
       <c r="A125" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B125" s="6" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C125" s="4" t="s">
         <v>4</v>
@@ -3193,10 +3196,10 @@
     </row>
     <row r="126" spans="1:3" ht="21">
       <c r="A126" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B126" s="6" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C126" s="4" t="s">
         <v>4</v>
@@ -3204,10 +3207,10 @@
     </row>
     <row r="127" spans="1:3" ht="21">
       <c r="A127" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B127" s="6" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C127" s="4" t="s">
         <v>4</v>
@@ -3215,10 +3218,10 @@
     </row>
     <row r="128" spans="1:3" ht="21">
       <c r="A128" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B128" s="6" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C128" s="4" t="s">
         <v>4</v>
@@ -3226,10 +3229,10 @@
     </row>
     <row r="129" spans="1:3" ht="21">
       <c r="A129" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B129" s="6" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C129" s="4" t="s">
         <v>4</v>
@@ -3237,10 +3240,10 @@
     </row>
     <row r="130" spans="1:3" ht="21">
       <c r="A130" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B130" s="6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C130" s="4" t="s">
         <v>4</v>
@@ -3248,10 +3251,10 @@
     </row>
     <row r="131" spans="1:3" ht="21">
       <c r="A131" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B131" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C131" s="4" t="s">
         <v>4</v>
@@ -3259,10 +3262,10 @@
     </row>
     <row r="132" spans="1:3" ht="21">
       <c r="A132" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B132" s="6" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C132" s="4" t="s">
         <v>4</v>
@@ -3270,10 +3273,10 @@
     </row>
     <row r="133" spans="1:3" ht="21">
       <c r="A133" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B133" s="6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C133" s="4" t="s">
         <v>4</v>
@@ -3281,10 +3284,10 @@
     </row>
     <row r="134" spans="1:3" ht="21">
       <c r="A134" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B134" s="6" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C134" s="4" t="s">
         <v>4</v>
@@ -3292,10 +3295,10 @@
     </row>
     <row r="135" spans="1:3" ht="21">
       <c r="A135" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B135" s="6" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C135" s="4" t="s">
         <v>4</v>
@@ -3303,10 +3306,10 @@
     </row>
     <row r="136" spans="1:3" ht="21">
       <c r="A136" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B136" s="6" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C136" s="4" t="s">
         <v>4</v>
@@ -3318,10 +3321,10 @@
     </row>
     <row r="139" spans="1:3" ht="21">
       <c r="A139" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="B139" s="6" t="s">
         <v>134</v>
-      </c>
-      <c r="B139" s="6" t="s">
-        <v>135</v>
       </c>
       <c r="C139" s="4" t="s">
         <v>4</v>
@@ -3329,10 +3332,10 @@
     </row>
     <row r="140" spans="1:3" ht="21">
       <c r="A140" s="8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B140" s="6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C140" s="4" t="s">
         <v>4</v>
@@ -3340,10 +3343,10 @@
     </row>
     <row r="141" spans="1:3" ht="21">
       <c r="A141" s="8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B141" s="6" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C141" s="4" t="s">
         <v>4</v>
@@ -3351,10 +3354,10 @@
     </row>
     <row r="142" spans="1:3" ht="21">
       <c r="A142" s="8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B142" s="6" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C142" s="4" t="s">
         <v>4</v>
@@ -3362,10 +3365,10 @@
     </row>
     <row r="143" spans="1:3" ht="21">
       <c r="A143" s="8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B143" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C143" s="4" t="s">
         <v>4</v>
@@ -3373,21 +3376,21 @@
     </row>
     <row r="144" spans="1:3" ht="21">
       <c r="A144" s="8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B144" s="6" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C144" s="11" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="145" spans="1:3" ht="21">
       <c r="A145" s="8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B145" s="6" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C145" s="4" t="s">
         <v>4</v>
@@ -3395,10 +3398,10 @@
     </row>
     <row r="146" spans="1:3" ht="21">
       <c r="A146" s="8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B146" s="6" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C146" s="4" t="s">
         <v>4</v>
@@ -3406,10 +3409,10 @@
     </row>
     <row r="147" spans="1:3" ht="21">
       <c r="A147" s="8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B147" s="6" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C147" s="4" t="s">
         <v>4</v>
@@ -3417,10 +3420,10 @@
     </row>
     <row r="148" spans="1:3" ht="21">
       <c r="A148" s="8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B148" s="6" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C148" s="4" t="s">
         <v>4</v>
@@ -3428,10 +3431,10 @@
     </row>
     <row r="149" spans="1:3" ht="21">
       <c r="A149" s="8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B149" s="6" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C149" s="4" t="s">
         <v>4</v>
@@ -3439,10 +3442,10 @@
     </row>
     <row r="150" spans="1:3" ht="21">
       <c r="A150" s="8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B150" s="6" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C150" s="4" t="s">
         <v>4</v>
@@ -3450,10 +3453,10 @@
     </row>
     <row r="151" spans="1:3" ht="21">
       <c r="A151" s="8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B151" s="6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C151" s="4" t="s">
         <v>4</v>
@@ -3461,10 +3464,10 @@
     </row>
     <row r="152" spans="1:3" ht="21">
       <c r="A152" s="8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B152" s="6" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C152" s="4" t="s">
         <v>4</v>
@@ -3472,10 +3475,10 @@
     </row>
     <row r="153" spans="1:3" ht="21">
       <c r="A153" s="8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B153" s="6" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C153" s="4" t="s">
         <v>4</v>
@@ -3483,10 +3486,10 @@
     </row>
     <row r="154" spans="1:3" ht="21">
       <c r="A154" s="8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B154" s="6" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C154" s="4" t="s">
         <v>4</v>
@@ -3494,10 +3497,10 @@
     </row>
     <row r="155" spans="1:3" ht="21">
       <c r="A155" s="8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B155" s="6" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C155" s="4" t="s">
         <v>4</v>
@@ -3505,10 +3508,10 @@
     </row>
     <row r="156" spans="1:3" ht="21">
       <c r="A156" s="8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B156" s="6" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C156" s="4" t="s">
         <v>4</v>
@@ -3516,10 +3519,10 @@
     </row>
     <row r="157" spans="1:3" ht="21">
       <c r="A157" s="8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B157" s="6" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C157" s="4" t="s">
         <v>4</v>
@@ -3527,10 +3530,10 @@
     </row>
     <row r="158" spans="1:3" ht="21">
       <c r="A158" s="8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B158" s="6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C158" s="4" t="s">
         <v>4</v>
@@ -3538,10 +3541,10 @@
     </row>
     <row r="159" spans="1:3" ht="21">
       <c r="A159" s="8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B159" s="6" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C159" s="4" t="s">
         <v>4</v>
@@ -3549,10 +3552,10 @@
     </row>
     <row r="160" spans="1:3" ht="21">
       <c r="A160" s="8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B160" s="6" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C160" s="4" t="s">
         <v>4</v>
@@ -3560,10 +3563,10 @@
     </row>
     <row r="161" spans="1:3" ht="21">
       <c r="A161" s="8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B161" s="6" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C161" s="4" t="s">
         <v>4</v>
@@ -3571,10 +3574,10 @@
     </row>
     <row r="162" spans="1:3" ht="21">
       <c r="A162" s="8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B162" s="6" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C162" s="4" t="s">
         <v>4</v>
@@ -3582,10 +3585,10 @@
     </row>
     <row r="163" spans="1:3" ht="21">
       <c r="A163" s="8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B163" s="6" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C163" s="4" t="s">
         <v>4</v>
@@ -3593,10 +3596,10 @@
     </row>
     <row r="164" spans="1:3" ht="21">
       <c r="A164" s="8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B164" s="7" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C164" s="4" t="s">
         <v>4</v>
@@ -3604,10 +3607,10 @@
     </row>
     <row r="165" spans="1:3" ht="21">
       <c r="A165" s="8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B165" s="7" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C165" s="4" t="s">
         <v>4</v>
@@ -3615,10 +3618,10 @@
     </row>
     <row r="166" spans="1:3" ht="21">
       <c r="A166" s="8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B166" s="6" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C166" s="4" t="s">
         <v>4</v>
@@ -3626,10 +3629,10 @@
     </row>
     <row r="167" spans="1:3" ht="21">
       <c r="A167" s="8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B167" s="6" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C167" s="4" t="s">
         <v>4</v>
@@ -3637,10 +3640,10 @@
     </row>
     <row r="168" spans="1:3" ht="21">
       <c r="A168" s="8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B168" s="6" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C168" s="4" t="s">
         <v>4</v>
@@ -3648,10 +3651,10 @@
     </row>
     <row r="169" spans="1:3" ht="21">
       <c r="A169" s="8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B169" s="6" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C169" s="4" t="s">
         <v>4</v>
@@ -3659,10 +3662,10 @@
     </row>
     <row r="170" spans="1:3" ht="21">
       <c r="A170" s="8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B170" s="6" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C170" s="4" t="s">
         <v>4</v>
@@ -3670,10 +3673,10 @@
     </row>
     <row r="171" spans="1:3" ht="21">
       <c r="A171" s="8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B171" s="6" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C171" s="4" t="s">
         <v>4</v>
@@ -3681,10 +3684,10 @@
     </row>
     <row r="172" spans="1:3" ht="21">
       <c r="A172" s="8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B172" s="6" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C172" s="4" t="s">
         <v>4</v>
@@ -3692,10 +3695,10 @@
     </row>
     <row r="173" spans="1:3" ht="21">
       <c r="A173" s="8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B173" s="6" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C173" s="4" t="s">
         <v>4</v>
@@ -3703,10 +3706,10 @@
     </row>
     <row r="174" spans="1:3" ht="21">
       <c r="A174" s="8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B174" s="6" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C174" s="4" t="s">
         <v>4</v>
@@ -3718,10 +3721,10 @@
     </row>
     <row r="177" spans="1:3" ht="21">
       <c r="A177" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="B177" s="6" t="s">
         <v>171</v>
-      </c>
-      <c r="B177" s="6" t="s">
-        <v>172</v>
       </c>
       <c r="C177" s="4" t="s">
         <v>4</v>
@@ -3729,10 +3732,10 @@
     </row>
     <row r="178" spans="1:3" ht="21">
       <c r="A178" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B178" s="6" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C178" s="4" t="s">
         <v>4</v>
@@ -3740,10 +3743,10 @@
     </row>
     <row r="179" spans="1:3" ht="21">
       <c r="A179" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B179" s="6" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C179" s="4" t="s">
         <v>4</v>
@@ -3751,10 +3754,10 @@
     </row>
     <row r="180" spans="1:3" ht="21">
       <c r="A180" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B180" s="6" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C180" s="4" t="s">
         <v>4</v>
@@ -3762,10 +3765,10 @@
     </row>
     <row r="181" spans="1:3" ht="21">
       <c r="A181" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B181" s="6" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C181" s="4" t="s">
         <v>4</v>
@@ -3773,10 +3776,10 @@
     </row>
     <row r="182" spans="1:3" ht="21">
       <c r="A182" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B182" s="6" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C182" s="4" t="s">
         <v>4</v>
@@ -3784,10 +3787,10 @@
     </row>
     <row r="183" spans="1:3" ht="21">
       <c r="A183" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B183" s="6" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C183" s="4" t="s">
         <v>4</v>
@@ -3795,10 +3798,10 @@
     </row>
     <row r="184" spans="1:3" ht="21">
       <c r="A184" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B184" s="6" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C184" s="4" t="s">
         <v>4</v>
@@ -3806,10 +3809,10 @@
     </row>
     <row r="185" spans="1:3" ht="21">
       <c r="A185" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B185" s="6" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C185" s="4" t="s">
         <v>4</v>
@@ -3817,10 +3820,10 @@
     </row>
     <row r="186" spans="1:3" ht="21">
       <c r="A186" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B186" s="6" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C186" s="4" t="s">
         <v>4</v>
@@ -3828,10 +3831,10 @@
     </row>
     <row r="187" spans="1:3" ht="21">
       <c r="A187" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B187" s="6" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C187" s="4" t="s">
         <v>4</v>
@@ -3839,10 +3842,10 @@
     </row>
     <row r="188" spans="1:3" ht="21">
       <c r="A188" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B188" s="6" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C188" s="4" t="s">
         <v>4</v>
@@ -3850,10 +3853,10 @@
     </row>
     <row r="189" spans="1:3" ht="21">
       <c r="A189" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B189" s="6" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C189" s="4" t="s">
         <v>4</v>
@@ -3861,10 +3864,10 @@
     </row>
     <row r="190" spans="1:3" ht="21">
       <c r="A190" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B190" s="6" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C190" s="4" t="s">
         <v>4</v>
@@ -3872,10 +3875,10 @@
     </row>
     <row r="191" spans="1:3" ht="21">
       <c r="A191" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B191" s="6" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C191" s="4" t="s">
         <v>4</v>
@@ -3883,10 +3886,10 @@
     </row>
     <row r="192" spans="1:3" ht="21">
       <c r="A192" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B192" s="6" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C192" s="4" t="s">
         <v>4</v>
@@ -3894,10 +3897,10 @@
     </row>
     <row r="193" spans="1:3" ht="21">
       <c r="A193" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B193" s="6" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C193" s="4" t="s">
         <v>4</v>
@@ -3905,10 +3908,10 @@
     </row>
     <row r="194" spans="1:3" ht="21">
       <c r="A194" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B194" s="6" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C194" s="4" t="s">
         <v>4</v>
@@ -3916,10 +3919,10 @@
     </row>
     <row r="195" spans="1:3" ht="21">
       <c r="A195" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B195" s="6" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C195" s="4" t="s">
         <v>4</v>
@@ -3927,10 +3930,10 @@
     </row>
     <row r="196" spans="1:3" ht="21">
       <c r="A196" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B196" s="6" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C196" s="4" t="s">
         <v>4</v>
@@ -3938,10 +3941,10 @@
     </row>
     <row r="197" spans="1:3" ht="21">
       <c r="A197" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B197" s="6" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C197" s="4" t="s">
         <v>4</v>
@@ -3949,10 +3952,10 @@
     </row>
     <row r="198" spans="1:3" ht="21">
       <c r="A198" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B198" s="6" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C198" s="4" t="s">
         <v>4</v>
@@ -3960,10 +3963,10 @@
     </row>
     <row r="199" spans="1:3" ht="21">
       <c r="A199" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B199" s="6" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C199" s="4" t="s">
         <v>4</v>
@@ -3971,10 +3974,10 @@
     </row>
     <row r="200" spans="1:3" ht="21">
       <c r="A200" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B200" s="6" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C200" s="4" t="s">
         <v>4</v>
@@ -3982,10 +3985,10 @@
     </row>
     <row r="201" spans="1:3" ht="21">
       <c r="A201" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B201" s="6" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C201" s="4" t="s">
         <v>4</v>
@@ -3993,10 +3996,10 @@
     </row>
     <row r="202" spans="1:3" ht="21">
       <c r="A202" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B202" s="6" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C202" s="4" t="s">
         <v>4</v>
@@ -4004,10 +4007,10 @@
     </row>
     <row r="203" spans="1:3" ht="21">
       <c r="A203" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B203" s="6" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C203" s="4" t="s">
         <v>4</v>
@@ -4015,10 +4018,10 @@
     </row>
     <row r="204" spans="1:3" ht="21">
       <c r="A204" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B204" s="6" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C204" s="4" t="s">
         <v>4</v>
@@ -4026,10 +4029,10 @@
     </row>
     <row r="205" spans="1:3" ht="21">
       <c r="A205" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B205" s="6" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C205" s="4" t="s">
         <v>4</v>
@@ -4037,10 +4040,10 @@
     </row>
     <row r="206" spans="1:3" ht="21">
       <c r="A206" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B206" s="6" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C206" s="4" t="s">
         <v>4</v>
@@ -4048,10 +4051,10 @@
     </row>
     <row r="207" spans="1:3" ht="21">
       <c r="A207" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B207" s="6" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C207" s="4" t="s">
         <v>4</v>
@@ -4059,10 +4062,10 @@
     </row>
     <row r="208" spans="1:3" ht="21">
       <c r="A208" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B208" s="6" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C208" s="4" t="s">
         <v>4</v>
@@ -4070,10 +4073,10 @@
     </row>
     <row r="209" spans="1:3" ht="21">
       <c r="A209" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B209" s="6" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C209" s="4" t="s">
         <v>4</v>
@@ -4081,10 +4084,10 @@
     </row>
     <row r="210" spans="1:3" ht="21">
       <c r="A210" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B210" s="6" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C210" s="4" t="s">
         <v>4</v>
@@ -4092,10 +4095,10 @@
     </row>
     <row r="211" spans="1:3" ht="21">
       <c r="A211" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B211" s="6" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C211" s="4" t="s">
         <v>4</v>
@@ -4113,10 +4116,10 @@
     </row>
     <row r="214" spans="1:3" ht="21">
       <c r="A214" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="B214" s="6" t="s">
         <v>207</v>
-      </c>
-      <c r="B214" s="6" t="s">
-        <v>208</v>
       </c>
       <c r="C214" s="4" t="s">
         <v>4</v>
@@ -4124,10 +4127,10 @@
     </row>
     <row r="215" spans="1:3" ht="21">
       <c r="A215" s="5" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B215" s="6" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C215" s="4" t="s">
         <v>4</v>
@@ -4135,10 +4138,10 @@
     </row>
     <row r="216" spans="1:3" ht="21">
       <c r="A216" s="5" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B216" s="6" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C216" s="4" t="s">
         <v>4</v>
@@ -4146,10 +4149,10 @@
     </row>
     <row r="217" spans="1:3" ht="21">
       <c r="A217" s="5" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B217" s="6" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C217" s="4" t="s">
         <v>4</v>
@@ -4157,10 +4160,10 @@
     </row>
     <row r="218" spans="1:3" ht="21">
       <c r="A218" s="5" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B218" s="6" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C218" s="4" t="s">
         <v>4</v>
@@ -4168,10 +4171,10 @@
     </row>
     <row r="219" spans="1:3" ht="21">
       <c r="A219" s="5" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B219" s="6" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C219" s="4" t="s">
         <v>4</v>
@@ -4179,10 +4182,10 @@
     </row>
     <row r="220" spans="1:3" ht="21">
       <c r="A220" s="5" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B220" s="9" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C220" s="4" t="s">
         <v>4</v>
@@ -4190,10 +4193,10 @@
     </row>
     <row r="221" spans="1:3" ht="21">
       <c r="A221" s="5" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B221" s="6" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C221" s="4" t="s">
         <v>4</v>
@@ -4201,10 +4204,10 @@
     </row>
     <row r="222" spans="1:3" ht="21">
       <c r="A222" s="5" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B222" s="6" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C222" s="4" t="s">
         <v>4</v>
@@ -4212,10 +4215,10 @@
     </row>
     <row r="223" spans="1:3" ht="21">
       <c r="A223" s="5" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B223" s="6" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C223" s="4" t="s">
         <v>4</v>
@@ -4223,10 +4226,10 @@
     </row>
     <row r="224" spans="1:3" ht="21">
       <c r="A224" s="5" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B224" s="6" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C224" s="4" t="s">
         <v>4</v>
@@ -4234,10 +4237,10 @@
     </row>
     <row r="225" spans="1:3" ht="21">
       <c r="A225" s="5" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B225" s="6" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C225" s="4" t="s">
         <v>4</v>
@@ -4245,10 +4248,10 @@
     </row>
     <row r="226" spans="1:3" ht="21">
       <c r="A226" s="5" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B226" s="6" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C226" s="4" t="s">
         <v>4</v>
@@ -4256,10 +4259,10 @@
     </row>
     <row r="227" spans="1:3" ht="21">
       <c r="A227" s="5" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B227" s="6" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C227" s="4" t="s">
         <v>4</v>
@@ -4267,10 +4270,10 @@
     </row>
     <row r="228" spans="1:3" ht="21">
       <c r="A228" s="5" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B228" s="6" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C228" s="4" t="s">
         <v>4</v>
@@ -4278,10 +4281,10 @@
     </row>
     <row r="229" spans="1:3" ht="21">
       <c r="A229" s="5" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B229" s="6" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C229" s="4" t="s">
         <v>4</v>
@@ -4289,10 +4292,10 @@
     </row>
     <row r="230" spans="1:3" ht="21">
       <c r="A230" s="5" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B230" s="6" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C230" s="4" t="s">
         <v>4</v>
@@ -4300,10 +4303,10 @@
     </row>
     <row r="231" spans="1:3" ht="21">
       <c r="A231" s="5" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B231" s="6" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C231" s="4" t="s">
         <v>4</v>
@@ -4311,10 +4314,10 @@
     </row>
     <row r="232" spans="1:3" ht="21">
       <c r="A232" s="5" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B232" s="6" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C232" s="4" t="s">
         <v>4</v>
@@ -4322,10 +4325,10 @@
     </row>
     <row r="233" spans="1:3" ht="21">
       <c r="A233" s="5" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B233" s="6" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C233" s="4" t="s">
         <v>4</v>
@@ -4333,10 +4336,10 @@
     </row>
     <row r="234" spans="1:3" ht="21">
       <c r="A234" s="5" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B234" s="6" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C234" s="4" t="s">
         <v>4</v>
@@ -4344,10 +4347,10 @@
     </row>
     <row r="235" spans="1:3" ht="21">
       <c r="A235" s="5" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B235" s="6" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C235" s="4" t="s">
         <v>4</v>
@@ -4363,10 +4366,10 @@
     </row>
     <row r="238" spans="1:3" ht="21">
       <c r="A238" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="B238" s="6" t="s">
         <v>230</v>
-      </c>
-      <c r="B238" s="6" t="s">
-        <v>231</v>
       </c>
       <c r="C238" s="4" t="s">
         <v>4</v>
@@ -4374,10 +4377,10 @@
     </row>
     <row r="239" spans="1:3" ht="21">
       <c r="A239" s="5" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B239" s="6" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C239" s="4" t="s">
         <v>4</v>
@@ -4385,10 +4388,10 @@
     </row>
     <row r="240" spans="1:3" ht="21">
       <c r="A240" s="5" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B240" s="6" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C240" s="4" t="s">
         <v>4</v>
@@ -4396,10 +4399,10 @@
     </row>
     <row r="241" spans="1:3" ht="21">
       <c r="A241" s="5" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B241" s="6" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C241" s="4" t="s">
         <v>4</v>
@@ -4407,10 +4410,10 @@
     </row>
     <row r="242" spans="1:3" ht="21">
       <c r="A242" s="5" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B242" s="6" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C242" s="4" t="s">
         <v>4</v>
@@ -4418,10 +4421,10 @@
     </row>
     <row r="243" spans="1:3" ht="21">
       <c r="A243" s="5" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B243" s="6" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C243" s="4" t="s">
         <v>4</v>
@@ -4429,10 +4432,10 @@
     </row>
     <row r="244" spans="1:3" ht="21">
       <c r="A244" s="5" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B244" s="6" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C244" s="4" t="s">
         <v>4</v>
@@ -4440,10 +4443,10 @@
     </row>
     <row r="245" spans="1:3" ht="21">
       <c r="A245" s="5" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B245" s="6" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C245" s="4" t="s">
         <v>4</v>
@@ -4451,10 +4454,10 @@
     </row>
     <row r="246" spans="1:3" ht="21">
       <c r="A246" s="5" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B246" s="6" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C246" s="4" t="s">
         <v>4</v>
@@ -4462,10 +4465,10 @@
     </row>
     <row r="247" spans="1:3" ht="21">
       <c r="A247" s="5" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B247" s="6" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C247" s="4" t="s">
         <v>4</v>
@@ -4473,10 +4476,10 @@
     </row>
     <row r="248" spans="1:3" ht="21">
       <c r="A248" s="5" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B248" s="6" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C248" s="4" t="s">
         <v>4</v>
@@ -4484,10 +4487,10 @@
     </row>
     <row r="249" spans="1:3" ht="21">
       <c r="A249" s="5" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B249" s="6" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C249" s="4" t="s">
         <v>4</v>
@@ -4495,10 +4498,10 @@
     </row>
     <row r="250" spans="1:3" ht="21">
       <c r="A250" s="5" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B250" s="6" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C250" s="4" t="s">
         <v>4</v>
@@ -4506,10 +4509,10 @@
     </row>
     <row r="251" spans="1:3" ht="21">
       <c r="A251" s="5" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B251" s="6" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C251" s="4" t="s">
         <v>4</v>
@@ -4517,10 +4520,10 @@
     </row>
     <row r="252" spans="1:3" ht="21">
       <c r="A252" s="5" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B252" s="6" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C252" s="4" t="s">
         <v>4</v>
@@ -4528,10 +4531,10 @@
     </row>
     <row r="253" spans="1:3" ht="21">
       <c r="A253" s="5" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B253" s="6" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C253" s="4" t="s">
         <v>4</v>
@@ -4539,10 +4542,10 @@
     </row>
     <row r="254" spans="1:3" ht="21">
       <c r="A254" s="5" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B254" s="6" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C254" s="4" t="s">
         <v>4</v>
@@ -4550,10 +4553,10 @@
     </row>
     <row r="255" spans="1:3" ht="21">
       <c r="A255" s="5" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B255" s="6" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C255" s="4" t="s">
         <v>4</v>
@@ -4561,10 +4564,10 @@
     </row>
     <row r="256" spans="1:3" ht="21">
       <c r="A256" s="5" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B256" s="6" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C256" s="4" t="s">
         <v>4</v>
@@ -4572,10 +4575,10 @@
     </row>
     <row r="257" spans="1:3" ht="21">
       <c r="A257" s="5" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B257" s="6" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C257" s="4" t="s">
         <v>4</v>
@@ -4583,10 +4586,10 @@
     </row>
     <row r="258" spans="1:3" ht="21">
       <c r="A258" s="5" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B258" s="6" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C258" s="4" t="s">
         <v>4</v>
@@ -4594,10 +4597,10 @@
     </row>
     <row r="259" spans="1:3" ht="21">
       <c r="A259" s="5" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B259" s="6" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C259" s="4" t="s">
         <v>4</v>
@@ -4605,10 +4608,10 @@
     </row>
     <row r="260" spans="1:3" ht="21">
       <c r="A260" s="5" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B260" s="6" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C260" s="4" t="s">
         <v>4</v>
@@ -4616,10 +4619,10 @@
     </row>
     <row r="261" spans="1:3" ht="21">
       <c r="A261" s="5" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B261" s="6" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C261" s="4" t="s">
         <v>4</v>
@@ -4627,10 +4630,10 @@
     </row>
     <row r="262" spans="1:3" ht="21">
       <c r="A262" s="5" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B262" s="6" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C262" s="4" t="s">
         <v>4</v>
@@ -4638,10 +4641,10 @@
     </row>
     <row r="263" spans="1:3" ht="21">
       <c r="A263" s="5" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B263" s="6" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C263" s="4" t="s">
         <v>4</v>
@@ -4649,10 +4652,10 @@
     </row>
     <row r="264" spans="1:3" ht="21">
       <c r="A264" s="5" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B264" s="6" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C264" s="4" t="s">
         <v>4</v>
@@ -4660,10 +4663,10 @@
     </row>
     <row r="265" spans="1:3" ht="21">
       <c r="A265" s="5" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B265" s="6" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C265" s="4" t="s">
         <v>4</v>
@@ -4671,10 +4674,10 @@
     </row>
     <row r="266" spans="1:3" ht="21">
       <c r="A266" s="5" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B266" s="6" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C266" s="4" t="s">
         <v>4</v>
@@ -4682,10 +4685,10 @@
     </row>
     <row r="267" spans="1:3" ht="21">
       <c r="A267" s="5" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B267" s="6" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C267" s="4" t="s">
         <v>4</v>
@@ -4693,10 +4696,10 @@
     </row>
     <row r="268" spans="1:3" ht="21">
       <c r="A268" s="5" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B268" s="6" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C268" s="4" t="s">
         <v>4</v>
@@ -4704,10 +4707,10 @@
     </row>
     <row r="269" spans="1:3" ht="21">
       <c r="A269" s="5" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B269" s="6" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C269" s="4" t="s">
         <v>4</v>
@@ -4715,10 +4718,10 @@
     </row>
     <row r="270" spans="1:3" ht="21">
       <c r="A270" s="5" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B270" s="6" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C270" s="4" t="s">
         <v>4</v>
@@ -4726,10 +4729,10 @@
     </row>
     <row r="271" spans="1:3" ht="21">
       <c r="A271" s="5" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B271" s="6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C271" s="4" t="s">
         <v>4</v>
@@ -4737,10 +4740,10 @@
     </row>
     <row r="272" spans="1:3" ht="21">
       <c r="A272" s="5" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B272" s="6" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C272" s="4" t="s">
         <v>4</v>
@@ -4756,10 +4759,10 @@
     </row>
     <row r="275" spans="1:3" ht="21">
       <c r="A275" s="5" t="s">
+        <v>264</v>
+      </c>
+      <c r="B275" s="6" t="s">
         <v>265</v>
-      </c>
-      <c r="B275" s="6" t="s">
-        <v>266</v>
       </c>
       <c r="C275" s="4" t="s">
         <v>4</v>
@@ -4767,10 +4770,10 @@
     </row>
     <row r="276" spans="1:3" ht="21">
       <c r="A276" s="5" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B276" s="6" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C276" s="4" t="s">
         <v>4</v>
@@ -4778,10 +4781,10 @@
     </row>
     <row r="277" spans="1:3" ht="21">
       <c r="A277" s="5" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B277" s="6" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C277" s="4" t="s">
         <v>4</v>
@@ -4789,10 +4792,10 @@
     </row>
     <row r="278" spans="1:3" ht="21">
       <c r="A278" s="5" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B278" s="6" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C278" s="4" t="s">
         <v>4</v>
@@ -4800,10 +4803,10 @@
     </row>
     <row r="279" spans="1:3" ht="21">
       <c r="A279" s="5" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B279" s="6" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C279" s="4" t="s">
         <v>4</v>
@@ -4811,10 +4814,10 @@
     </row>
     <row r="280" spans="1:3" ht="21">
       <c r="A280" s="5" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B280" s="6" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C280" s="4" t="s">
         <v>4</v>
@@ -4822,10 +4825,10 @@
     </row>
     <row r="281" spans="1:3" ht="21">
       <c r="A281" s="5" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B281" s="6" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C281" s="4" t="s">
         <v>4</v>
@@ -4833,10 +4836,10 @@
     </row>
     <row r="282" spans="1:3" ht="21">
       <c r="A282" s="5" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B282" s="6" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C282" s="4" t="s">
         <v>4</v>
@@ -4844,10 +4847,10 @@
     </row>
     <row r="283" spans="1:3" ht="21">
       <c r="A283" s="5" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B283" s="6" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C283" s="4" t="s">
         <v>4</v>
@@ -4855,10 +4858,10 @@
     </row>
     <row r="284" spans="1:3" ht="21">
       <c r="A284" s="5" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B284" s="6" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C284" s="4" t="s">
         <v>4</v>
@@ -4866,10 +4869,10 @@
     </row>
     <row r="285" spans="1:3" ht="21">
       <c r="A285" s="5" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B285" s="6" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C285" s="4" t="s">
         <v>4</v>
@@ -4877,10 +4880,10 @@
     </row>
     <row r="286" spans="1:3" ht="21">
       <c r="A286" s="5" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B286" s="6" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C286" s="4" t="s">
         <v>4</v>
@@ -4888,10 +4891,10 @@
     </row>
     <row r="287" spans="1:3" ht="21">
       <c r="A287" s="5" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B287" s="6" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C287" s="4" t="s">
         <v>4</v>
@@ -4899,10 +4902,10 @@
     </row>
     <row r="288" spans="1:3" ht="21">
       <c r="A288" s="5" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B288" s="6" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C288" s="4" t="s">
         <v>4</v>
@@ -4910,10 +4913,10 @@
     </row>
     <row r="289" spans="1:3" ht="21">
       <c r="A289" s="5" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B289" s="6" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C289" s="4" t="s">
         <v>4</v>
@@ -4921,10 +4924,10 @@
     </row>
     <row r="290" spans="1:3" ht="21">
       <c r="A290" s="5" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B290" s="6" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C290" s="4" t="s">
         <v>4</v>
@@ -4932,10 +4935,10 @@
     </row>
     <row r="291" spans="1:3" ht="21">
       <c r="A291" s="5" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B291" s="6" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C291" s="4" t="s">
         <v>4</v>
@@ -4943,10 +4946,10 @@
     </row>
     <row r="292" spans="1:3" ht="21">
       <c r="A292" s="5" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B292" s="6" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C292" s="4" t="s">
         <v>4</v>
@@ -4954,10 +4957,10 @@
     </row>
     <row r="293" spans="1:3" ht="21">
       <c r="A293" s="5" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B293" s="6" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C293" s="4" t="s">
         <v>4</v>
@@ -4973,32 +4976,32 @@
     </row>
     <row r="296" spans="1:3" ht="21">
       <c r="A296" s="5" t="s">
+        <v>284</v>
+      </c>
+      <c r="B296" s="6" t="s">
         <v>285</v>
       </c>
-      <c r="B296" s="6" t="s">
-        <v>286</v>
-      </c>
       <c r="C296" s="11" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="297" spans="1:3" ht="21">
       <c r="A297" s="5" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B297" s="6" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C297" s="11" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="298" spans="1:3" ht="21">
       <c r="A298" s="5" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B298" s="6" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C298" s="4" t="s">
         <v>4</v>
@@ -5006,10 +5009,10 @@
     </row>
     <row r="299" spans="1:3" ht="21">
       <c r="A299" s="5" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B299" s="6" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C299" s="4" t="s">
         <v>4</v>
@@ -5017,10 +5020,10 @@
     </row>
     <row r="300" spans="1:3" ht="21">
       <c r="A300" s="5" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B300" s="6" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C300" s="4" t="s">
         <v>4</v>
@@ -5028,54 +5031,54 @@
     </row>
     <row r="301" spans="1:3" ht="21">
       <c r="A301" s="5" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B301" s="6" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C301" s="11" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="302" spans="1:3" ht="21">
       <c r="A302" s="5" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B302" s="6" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C302" s="11" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="303" spans="1:3" ht="21">
       <c r="A303" s="5" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B303" s="6" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C303" s="11" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="304" spans="1:3" ht="21">
       <c r="A304" s="5" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B304" s="6" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C304" s="11" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="305" spans="1:3" ht="21">
       <c r="A305" s="5" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B305" s="6" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C305" s="4" t="s">
         <v>4</v>
@@ -5083,10 +5086,10 @@
     </row>
     <row r="306" spans="1:3" ht="21">
       <c r="A306" s="5" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B306" s="6" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C306" s="4" t="s">
         <v>4</v>
@@ -5094,10 +5097,10 @@
     </row>
     <row r="307" spans="1:3" ht="21">
       <c r="A307" s="5" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B307" s="6" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C307" s="4" t="s">
         <v>4</v>
@@ -5105,10 +5108,10 @@
     </row>
     <row r="308" spans="1:3" ht="21">
       <c r="A308" s="5" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B308" s="6" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C308" s="4" t="s">
         <v>4</v>
@@ -5116,10 +5119,10 @@
     </row>
     <row r="309" spans="1:3" ht="21">
       <c r="A309" s="5" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B309" s="9" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C309" s="4" t="s">
         <v>4</v>
@@ -5127,21 +5130,21 @@
     </row>
     <row r="310" spans="1:3" ht="21">
       <c r="A310" s="5" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B310" s="6" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C310" s="4" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="311" spans="1:3" ht="21">
       <c r="A311" s="5" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B311" s="6" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C311" s="4" t="s">
         <v>4</v>
@@ -5149,10 +5152,10 @@
     </row>
     <row r="312" spans="1:3" ht="21">
       <c r="A312" s="5" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B312" s="6" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C312" s="4" t="s">
         <v>4</v>
@@ -5160,10 +5163,10 @@
     </row>
     <row r="313" spans="1:3" ht="21">
       <c r="A313" s="5" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B313" s="6" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C313" s="4" t="s">
         <v>4</v>
@@ -5171,10 +5174,10 @@
     </row>
     <row r="314" spans="1:3" ht="21">
       <c r="A314" s="5" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B314" s="6" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C314" s="4" t="s">
         <v>4</v>
@@ -5182,10 +5185,10 @@
     </row>
     <row r="315" spans="1:3" ht="21">
       <c r="A315" s="5" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B315" s="6" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C315" s="4" t="s">
         <v>4</v>
@@ -5193,10 +5196,10 @@
     </row>
     <row r="316" spans="1:3" ht="21">
       <c r="A316" s="5" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B316" s="6" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C316" s="4" t="s">
         <v>4</v>
@@ -5204,10 +5207,10 @@
     </row>
     <row r="317" spans="1:3" ht="21">
       <c r="A317" s="5" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B317" s="6" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C317" s="4" t="s">
         <v>4</v>
@@ -5215,10 +5218,10 @@
     </row>
     <row r="318" spans="1:3" ht="21">
       <c r="A318" s="5" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B318" s="6" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C318" s="4" t="s">
         <v>4</v>
@@ -5226,10 +5229,10 @@
     </row>
     <row r="319" spans="1:3" ht="21">
       <c r="A319" s="5" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B319" s="6" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C319" s="4" t="s">
         <v>4</v>
@@ -5237,10 +5240,10 @@
     </row>
     <row r="320" spans="1:3" ht="21">
       <c r="A320" s="5" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B320" s="6" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C320" s="4" t="s">
         <v>4</v>
@@ -5248,10 +5251,10 @@
     </row>
     <row r="321" spans="1:3" ht="21">
       <c r="A321" s="5" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B321" s="6" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C321" s="4" t="s">
         <v>4</v>
@@ -5259,10 +5262,10 @@
     </row>
     <row r="322" spans="1:3" ht="21">
       <c r="A322" s="5" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B322" s="6" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C322" s="4" t="s">
         <v>4</v>
@@ -5270,10 +5273,10 @@
     </row>
     <row r="323" spans="1:3" ht="21">
       <c r="A323" s="5" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B323" s="6" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C323" s="4" t="s">
         <v>4</v>
@@ -5281,10 +5284,10 @@
     </row>
     <row r="324" spans="1:3" ht="21">
       <c r="A324" s="5" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B324" s="6" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C324" s="4" t="s">
         <v>4</v>
@@ -5292,10 +5295,10 @@
     </row>
     <row r="325" spans="1:3" ht="21">
       <c r="A325" s="5" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B325" s="6" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C325" s="4" t="s">
         <v>4</v>
@@ -5303,10 +5306,10 @@
     </row>
     <row r="326" spans="1:3" ht="21">
       <c r="A326" s="5" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B326" s="6" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C326" s="4" t="s">
         <v>4</v>
@@ -5314,10 +5317,10 @@
     </row>
     <row r="327" spans="1:3" ht="21">
       <c r="A327" s="5" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B327" s="6" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C327" s="4" t="s">
         <v>4</v>
@@ -5325,10 +5328,10 @@
     </row>
     <row r="328" spans="1:3" ht="21">
       <c r="A328" s="5" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B328" s="6" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C328" s="4" t="s">
         <v>4</v>
@@ -5336,10 +5339,10 @@
     </row>
     <row r="329" spans="1:3" ht="21">
       <c r="A329" s="5" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B329" s="6" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C329" s="4" t="s">
         <v>4</v>
@@ -5347,10 +5350,10 @@
     </row>
     <row r="330" spans="1:3" ht="21">
       <c r="A330" s="5" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B330" s="6" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C330" s="4" t="s">
         <v>4</v>
@@ -5358,21 +5361,21 @@
     </row>
     <row r="331" spans="1:3" ht="21">
       <c r="A331" s="5" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B331" s="6" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C331" s="11" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="332" spans="1:3" ht="21">
       <c r="A332" s="5" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B332" s="6" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C332" s="4" t="s">
         <v>4</v>
@@ -5380,13 +5383,13 @@
     </row>
     <row r="333" spans="1:3" ht="21">
       <c r="A333" s="5" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B333" s="6" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C333" s="11" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="334" spans="1:3" ht="21">
@@ -5399,10 +5402,10 @@
     </row>
     <row r="336" spans="1:3" ht="21">
       <c r="A336" s="8" t="s">
+        <v>323</v>
+      </c>
+      <c r="B336" s="6" t="s">
         <v>324</v>
-      </c>
-      <c r="B336" s="6" t="s">
-        <v>325</v>
       </c>
       <c r="C336" s="4" t="s">
         <v>4</v>
@@ -5410,10 +5413,10 @@
     </row>
     <row r="337" spans="1:3" ht="21">
       <c r="A337" s="8" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B337" s="6" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C337" s="4" t="s">
         <v>4</v>
@@ -5421,10 +5424,10 @@
     </row>
     <row r="338" spans="1:3" ht="21">
       <c r="A338" s="8" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B338" s="6" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C338" s="4" t="s">
         <v>4</v>
@@ -5432,10 +5435,10 @@
     </row>
     <row r="339" spans="1:3" ht="21">
       <c r="A339" s="8" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B339" s="6" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C339" s="4" t="s">
         <v>4</v>
@@ -5443,10 +5446,10 @@
     </row>
     <row r="340" spans="1:3" ht="21">
       <c r="A340" s="8" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B340" s="6" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C340" s="4" t="s">
         <v>4</v>
@@ -5454,10 +5457,10 @@
     </row>
     <row r="341" spans="1:3" ht="21">
       <c r="A341" s="8" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B341" s="6" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C341" s="4" t="s">
         <v>4</v>
@@ -5465,10 +5468,10 @@
     </row>
     <row r="342" spans="1:3" ht="21">
       <c r="A342" s="8" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B342" s="6" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C342" s="4" t="s">
         <v>4</v>
@@ -5476,10 +5479,10 @@
     </row>
     <row r="343" spans="1:3" ht="21">
       <c r="A343" s="8" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B343" s="6" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C343" s="4" t="s">
         <v>4</v>
@@ -5487,10 +5490,10 @@
     </row>
     <row r="344" spans="1:3" ht="21">
       <c r="A344" s="8" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B344" s="9" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C344" s="4" t="s">
         <v>4</v>
@@ -5498,10 +5501,10 @@
     </row>
     <row r="345" spans="1:3" ht="21">
       <c r="A345" s="8" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B345" s="6" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C345" s="4" t="s">
         <v>4</v>
@@ -5509,10 +5512,10 @@
     </row>
     <row r="346" spans="1:3" ht="21">
       <c r="A346" s="8" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B346" s="6" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C346" s="4" t="s">
         <v>4</v>
@@ -5520,10 +5523,10 @@
     </row>
     <row r="347" spans="1:3" ht="21">
       <c r="A347" s="8" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B347" s="6" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C347" s="4" t="s">
         <v>4</v>
@@ -5531,10 +5534,10 @@
     </row>
     <row r="348" spans="1:3" ht="21">
       <c r="A348" s="8" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B348" s="6" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C348" s="4" t="s">
         <v>4</v>
@@ -5542,10 +5545,10 @@
     </row>
     <row r="349" spans="1:3" ht="21">
       <c r="A349" s="8" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B349" s="6" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C349" s="4" t="s">
         <v>4</v>
@@ -5553,10 +5556,10 @@
     </row>
     <row r="350" spans="1:3" ht="21">
       <c r="A350" s="8" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B350" s="6" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C350" s="4" t="s">
         <v>4</v>
@@ -5564,10 +5567,10 @@
     </row>
     <row r="351" spans="1:3" ht="21">
       <c r="A351" s="8" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B351" s="6" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C351" s="4" t="s">
         <v>4</v>
@@ -5575,10 +5578,10 @@
     </row>
     <row r="352" spans="1:3" ht="21">
       <c r="A352" s="8" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B352" s="6" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C352" s="4" t="s">
         <v>4</v>
@@ -5586,10 +5589,10 @@
     </row>
     <row r="353" spans="1:3" ht="21">
       <c r="A353" s="8" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B353" s="6" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C353" s="4" t="s">
         <v>4</v>
@@ -5605,10 +5608,10 @@
     </row>
     <row r="356" spans="1:3" ht="21">
       <c r="A356" s="8" t="s">
+        <v>342</v>
+      </c>
+      <c r="B356" s="6" t="s">
         <v>343</v>
-      </c>
-      <c r="B356" s="6" t="s">
-        <v>344</v>
       </c>
       <c r="C356" s="4" t="s">
         <v>4</v>
@@ -5616,10 +5619,10 @@
     </row>
     <row r="357" spans="1:3" ht="21">
       <c r="A357" s="8" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B357" s="6" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C357" s="4" t="s">
         <v>4</v>
@@ -5627,10 +5630,10 @@
     </row>
     <row r="358" spans="1:3" ht="21">
       <c r="A358" s="8" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B358" s="6" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C358" s="4" t="s">
         <v>4</v>
@@ -5638,10 +5641,10 @@
     </row>
     <row r="359" spans="1:3" ht="21">
       <c r="A359" s="8" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B359" s="6" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C359" s="4" t="s">
         <v>4</v>
@@ -5649,10 +5652,10 @@
     </row>
     <row r="360" spans="1:3" ht="21">
       <c r="A360" s="8" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B360" s="6" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C360" s="4" t="s">
         <v>4</v>
@@ -5660,10 +5663,10 @@
     </row>
     <row r="361" spans="1:3" ht="21">
       <c r="A361" s="8" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B361" s="6" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C361" s="4" t="s">
         <v>4</v>
@@ -5671,10 +5674,10 @@
     </row>
     <row r="362" spans="1:3" ht="21">
       <c r="A362" s="8" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B362" s="6" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C362" s="4" t="s">
         <v>4</v>
@@ -5682,10 +5685,10 @@
     </row>
     <row r="363" spans="1:3" ht="21">
       <c r="A363" s="8" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B363" s="6" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C363" s="4" t="s">
         <v>4</v>
@@ -5693,10 +5696,10 @@
     </row>
     <row r="364" spans="1:3" ht="21">
       <c r="A364" s="8" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B364" s="6" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C364" s="4" t="s">
         <v>4</v>
@@ -5704,10 +5707,10 @@
     </row>
     <row r="365" spans="1:3" ht="21">
       <c r="A365" s="8" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B365" s="6" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C365" s="4" t="s">
         <v>4</v>
@@ -5715,10 +5718,10 @@
     </row>
     <row r="366" spans="1:3" ht="21">
       <c r="A366" s="8" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B366" s="6" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C366" s="4" t="s">
         <v>4</v>
@@ -5726,10 +5729,10 @@
     </row>
     <row r="367" spans="1:3" ht="21">
       <c r="A367" s="8" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B367" s="6" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C367" s="4" t="s">
         <v>4</v>
@@ -5737,10 +5740,10 @@
     </row>
     <row r="368" spans="1:3" ht="21">
       <c r="A368" s="8" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B368" s="6" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C368" s="4" t="s">
         <v>4</v>
@@ -5748,10 +5751,10 @@
     </row>
     <row r="369" spans="1:3" ht="21">
       <c r="A369" s="8" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B369" s="6" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C369" s="4" t="s">
         <v>4</v>
@@ -5759,10 +5762,10 @@
     </row>
     <row r="370" spans="1:3" ht="21">
       <c r="A370" s="8" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B370" s="6" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C370" s="4" t="s">
         <v>4</v>
@@ -5770,10 +5773,10 @@
     </row>
     <row r="371" spans="1:3" ht="21">
       <c r="A371" s="8" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B371" s="6" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C371" s="4" t="s">
         <v>4</v>
@@ -5781,10 +5784,10 @@
     </row>
     <row r="372" spans="1:3" ht="21">
       <c r="A372" s="8" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B372" s="6" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C372" s="4" t="s">
         <v>4</v>
@@ -5792,10 +5795,10 @@
     </row>
     <row r="373" spans="1:3" ht="21">
       <c r="A373" s="8" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B373" s="6" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C373" s="4" t="s">
         <v>4</v>
@@ -5803,10 +5806,10 @@
     </row>
     <row r="374" spans="1:3" ht="21">
       <c r="A374" s="8" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B374" s="6" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C374" s="4" t="s">
         <v>4</v>
@@ -5814,10 +5817,10 @@
     </row>
     <row r="375" spans="1:3" ht="21">
       <c r="A375" s="8" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B375" s="6" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C375" s="4" t="s">
         <v>4</v>
@@ -5825,10 +5828,10 @@
     </row>
     <row r="376" spans="1:3" ht="21">
       <c r="A376" s="8" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B376" s="6" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C376" s="4" t="s">
         <v>4</v>
@@ -5836,10 +5839,10 @@
     </row>
     <row r="377" spans="1:3" ht="21">
       <c r="A377" s="8" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B377" s="6" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C377" s="4" t="s">
         <v>4</v>
@@ -5847,10 +5850,10 @@
     </row>
     <row r="378" spans="1:3" ht="21">
       <c r="A378" s="8" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B378" s="6" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C378" s="4" t="s">
         <v>4</v>
@@ -5858,10 +5861,10 @@
     </row>
     <row r="379" spans="1:3" ht="21">
       <c r="A379" s="8" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B379" s="6" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C379" s="4" t="s">
         <v>4</v>
@@ -5869,10 +5872,10 @@
     </row>
     <row r="380" spans="1:3" ht="21">
       <c r="A380" s="8" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B380" s="6" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C380" s="4" t="s">
         <v>4</v>
@@ -5880,10 +5883,10 @@
     </row>
     <row r="381" spans="1:3" ht="21">
       <c r="A381" s="8" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B381" s="6" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C381" s="4" t="s">
         <v>4</v>
@@ -5891,10 +5894,10 @@
     </row>
     <row r="382" spans="1:3" ht="21">
       <c r="A382" s="8" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B382" s="6" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C382" s="4" t="s">
         <v>4</v>
@@ -5902,10 +5905,10 @@
     </row>
     <row r="383" spans="1:3" ht="21">
       <c r="A383" s="8" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B383" s="6" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C383" s="4" t="s">
         <v>4</v>
@@ -5913,10 +5916,10 @@
     </row>
     <row r="384" spans="1:3" ht="21">
       <c r="A384" s="8" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B384" s="6" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C384" s="4" t="s">
         <v>4</v>
@@ -5924,10 +5927,10 @@
     </row>
     <row r="385" spans="1:3" ht="21">
       <c r="A385" s="8" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B385" s="6" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C385" s="4" t="s">
         <v>4</v>
@@ -5935,10 +5938,10 @@
     </row>
     <row r="386" spans="1:3" ht="21">
       <c r="A386" s="8" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B386" s="6" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C386" s="4" t="s">
         <v>4</v>
@@ -5946,10 +5949,10 @@
     </row>
     <row r="387" spans="1:3" ht="21">
       <c r="A387" s="8" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B387" s="6" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C387" s="4" t="s">
         <v>4</v>
@@ -5957,10 +5960,10 @@
     </row>
     <row r="388" spans="1:3" ht="21">
       <c r="A388" s="8" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B388" s="6" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C388" s="4" t="s">
         <v>4</v>
@@ -5968,10 +5971,10 @@
     </row>
     <row r="389" spans="1:3" ht="21">
       <c r="A389" s="8" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B389" s="6" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C389" s="4" t="s">
         <v>4</v>
@@ -5979,10 +5982,10 @@
     </row>
     <row r="390" spans="1:3" ht="21">
       <c r="A390" s="8" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B390" s="6" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C390" s="4" t="s">
         <v>4</v>
@@ -5990,10 +5993,10 @@
     </row>
     <row r="391" spans="1:3" ht="21">
       <c r="A391" s="8" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B391" s="6" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C391" s="4" t="s">
         <v>4</v>
@@ -6001,10 +6004,10 @@
     </row>
     <row r="392" spans="1:3" ht="21">
       <c r="A392" s="8" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B392" s="6" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C392" s="4" t="s">
         <v>4</v>
@@ -6012,10 +6015,10 @@
     </row>
     <row r="393" spans="1:3" ht="21">
       <c r="A393" s="8" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B393" s="6" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C393" s="4" t="s">
         <v>4</v>
@@ -6023,10 +6026,10 @@
     </row>
     <row r="394" spans="1:3" ht="21">
       <c r="A394" s="8" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B394" s="6" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C394" s="4" t="s">
         <v>4</v>
@@ -6034,10 +6037,10 @@
     </row>
     <row r="395" spans="1:3" ht="21">
       <c r="A395" s="8" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B395" s="6" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C395" s="4" t="s">
         <v>4</v>
@@ -6045,10 +6048,10 @@
     </row>
     <row r="396" spans="1:3" ht="21">
       <c r="A396" s="8" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B396" s="6" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C396" s="4" t="s">
         <v>4</v>
@@ -6056,10 +6059,10 @@
     </row>
     <row r="397" spans="1:3" ht="21">
       <c r="A397" s="8" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B397" s="6" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C397" s="4" t="s">
         <v>4</v>
@@ -6067,10 +6070,10 @@
     </row>
     <row r="398" spans="1:3" ht="21">
       <c r="A398" s="8" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B398" s="6" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C398" s="4" t="s">
         <v>4</v>
@@ -6078,10 +6081,10 @@
     </row>
     <row r="399" spans="1:3" ht="21">
       <c r="A399" s="8" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B399" s="6" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C399" s="4" t="s">
         <v>4</v>
@@ -6097,10 +6100,10 @@
     </row>
     <row r="402" spans="1:3" ht="21">
       <c r="A402" s="8" t="s">
+        <v>386</v>
+      </c>
+      <c r="B402" s="6" t="s">
         <v>387</v>
-      </c>
-      <c r="B402" s="6" t="s">
-        <v>388</v>
       </c>
       <c r="C402" s="4" t="s">
         <v>4</v>
@@ -6108,10 +6111,10 @@
     </row>
     <row r="403" spans="1:3" ht="21">
       <c r="A403" s="8" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B403" s="6" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C403" s="4" t="s">
         <v>4</v>
@@ -6119,10 +6122,10 @@
     </row>
     <row r="404" spans="1:3" ht="21">
       <c r="A404" s="8" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B404" s="6" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C404" s="4" t="s">
         <v>4</v>
@@ -6130,10 +6133,10 @@
     </row>
     <row r="405" spans="1:3" ht="21">
       <c r="A405" s="8" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B405" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C405" s="4" t="s">
         <v>4</v>
@@ -6141,10 +6144,10 @@
     </row>
     <row r="406" spans="1:3" ht="21">
       <c r="A406" s="8" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B406" s="6" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C406" s="4" t="s">
         <v>4</v>
@@ -6152,10 +6155,10 @@
     </row>
     <row r="407" spans="1:3" ht="21">
       <c r="A407" s="8" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B407" s="6" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C407" s="4" t="s">
         <v>4</v>
@@ -6171,10 +6174,10 @@
     </row>
     <row r="410" spans="1:3" ht="21">
       <c r="A410" s="5" t="s">
+        <v>392</v>
+      </c>
+      <c r="B410" s="6" t="s">
         <v>393</v>
-      </c>
-      <c r="B410" s="6" t="s">
-        <v>394</v>
       </c>
       <c r="C410" s="4" t="s">
         <v>4</v>
@@ -6182,21 +6185,21 @@
     </row>
     <row r="411" spans="1:3" ht="21">
       <c r="A411" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B411" s="6" t="s">
-        <v>395</v>
-      </c>
-      <c r="C411" s="4" t="s">
-        <v>4</v>
+        <v>394</v>
+      </c>
+      <c r="C411" s="11" t="s">
+        <v>464</v>
       </c>
     </row>
     <row r="412" spans="1:3" ht="21">
       <c r="A412" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B412" s="6" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C412" s="4" t="s">
         <v>4</v>
@@ -6204,10 +6207,10 @@
     </row>
     <row r="413" spans="1:3" ht="21">
       <c r="A413" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B413" s="6" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C413" s="4" t="s">
         <v>4</v>
@@ -6215,10 +6218,10 @@
     </row>
     <row r="414" spans="1:3" ht="21">
       <c r="A414" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B414" s="6" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C414" s="4" t="s">
         <v>4</v>
@@ -6226,10 +6229,10 @@
     </row>
     <row r="415" spans="1:3" ht="21">
       <c r="A415" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B415" s="6" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C415" s="4" t="s">
         <v>4</v>
@@ -6237,10 +6240,10 @@
     </row>
     <row r="416" spans="1:3" ht="21">
       <c r="A416" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B416" s="6" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C416" s="4" t="s">
         <v>4</v>
@@ -6248,10 +6251,10 @@
     </row>
     <row r="417" spans="1:3" ht="21">
       <c r="A417" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B417" s="6" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C417" s="4" t="s">
         <v>4</v>
@@ -6259,10 +6262,10 @@
     </row>
     <row r="418" spans="1:3" ht="21">
       <c r="A418" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B418" s="6" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C418" s="4" t="s">
         <v>4</v>
@@ -6270,10 +6273,10 @@
     </row>
     <row r="419" spans="1:3" ht="21">
       <c r="A419" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B419" s="6" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C419" s="4" t="s">
         <v>4</v>
@@ -6281,10 +6284,10 @@
     </row>
     <row r="420" spans="1:3" ht="21">
       <c r="A420" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B420" s="6" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C420" s="4" t="s">
         <v>4</v>
@@ -6292,10 +6295,10 @@
     </row>
     <row r="421" spans="1:3" ht="21">
       <c r="A421" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B421" s="6" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C421" s="4" t="s">
         <v>4</v>
@@ -6303,10 +6306,10 @@
     </row>
     <row r="422" spans="1:3" ht="21">
       <c r="A422" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B422" s="6" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C422" s="4" t="s">
         <v>4</v>
@@ -6314,10 +6317,10 @@
     </row>
     <row r="423" spans="1:3" ht="21">
       <c r="A423" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B423" s="6" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C423" s="4" t="s">
         <v>4</v>
@@ -6325,10 +6328,10 @@
     </row>
     <row r="424" spans="1:3" ht="21">
       <c r="A424" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B424" s="6" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C424" s="4" t="s">
         <v>4</v>
@@ -6336,10 +6339,10 @@
     </row>
     <row r="425" spans="1:3" ht="21">
       <c r="A425" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B425" s="6" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C425" s="4" t="s">
         <v>4</v>
@@ -6347,10 +6350,10 @@
     </row>
     <row r="426" spans="1:3" ht="21">
       <c r="A426" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B426" s="6" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C426" s="4" t="s">
         <v>4</v>
@@ -6358,10 +6361,10 @@
     </row>
     <row r="427" spans="1:3" ht="21">
       <c r="A427" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B427" s="6" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C427" s="4" t="s">
         <v>4</v>
@@ -6369,10 +6372,10 @@
     </row>
     <row r="428" spans="1:3" ht="21">
       <c r="A428" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B428" s="6" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C428" s="4" t="s">
         <v>4</v>
@@ -6380,10 +6383,10 @@
     </row>
     <row r="429" spans="1:3" ht="21">
       <c r="A429" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B429" s="6" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C429" s="4" t="s">
         <v>4</v>
@@ -6391,10 +6394,10 @@
     </row>
     <row r="430" spans="1:3" ht="21">
       <c r="A430" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B430" s="6" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C430" s="4" t="s">
         <v>4</v>
@@ -6402,10 +6405,10 @@
     </row>
     <row r="431" spans="1:3" ht="21">
       <c r="A431" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B431" s="6" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C431" s="4" t="s">
         <v>4</v>
@@ -6413,10 +6416,10 @@
     </row>
     <row r="432" spans="1:3" ht="21">
       <c r="A432" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B432" s="6" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C432" s="4" t="s">
         <v>4</v>
@@ -6424,10 +6427,10 @@
     </row>
     <row r="433" spans="1:3" ht="21">
       <c r="A433" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B433" s="6" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C433" s="4" t="s">
         <v>4</v>
@@ -6435,10 +6438,10 @@
     </row>
     <row r="434" spans="1:3" ht="21">
       <c r="A434" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B434" s="6" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C434" s="4" t="s">
         <v>4</v>
@@ -6446,10 +6449,10 @@
     </row>
     <row r="435" spans="1:3" ht="21">
       <c r="A435" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B435" s="6" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C435" s="4" t="s">
         <v>4</v>
@@ -6457,10 +6460,10 @@
     </row>
     <row r="436" spans="1:3" ht="21">
       <c r="A436" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B436" s="6" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C436" s="4" t="s">
         <v>4</v>
@@ -6468,10 +6471,10 @@
     </row>
     <row r="437" spans="1:3" ht="21">
       <c r="A437" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B437" s="6" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C437" s="4" t="s">
         <v>4</v>
@@ -6479,10 +6482,10 @@
     </row>
     <row r="438" spans="1:3" ht="21">
       <c r="A438" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B438" s="6" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C438" s="4" t="s">
         <v>4</v>
@@ -6490,10 +6493,10 @@
     </row>
     <row r="439" spans="1:3" ht="21">
       <c r="A439" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B439" s="6" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C439" s="4" t="s">
         <v>4</v>
@@ -6501,10 +6504,10 @@
     </row>
     <row r="440" spans="1:3" ht="21">
       <c r="A440" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B440" s="6" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C440" s="4" t="s">
         <v>4</v>
@@ -6512,10 +6515,10 @@
     </row>
     <row r="441" spans="1:3" ht="21">
       <c r="A441" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B441" s="6" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="C441" s="4" t="s">
         <v>4</v>
@@ -6523,10 +6526,10 @@
     </row>
     <row r="442" spans="1:3" ht="21">
       <c r="A442" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B442" s="6" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C442" s="4" t="s">
         <v>4</v>
@@ -6534,10 +6537,10 @@
     </row>
     <row r="443" spans="1:3" ht="21">
       <c r="A443" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B443" s="6" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C443" s="4" t="s">
         <v>4</v>
@@ -6545,10 +6548,10 @@
     </row>
     <row r="444" spans="1:3" ht="21">
       <c r="A444" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B444" s="6" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C444" s="4" t="s">
         <v>4</v>
@@ -6556,10 +6559,10 @@
     </row>
     <row r="445" spans="1:3" ht="21">
       <c r="A445" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B445" s="6" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C445" s="4" t="s">
         <v>4</v>
@@ -6567,10 +6570,10 @@
     </row>
     <row r="446" spans="1:3" ht="21">
       <c r="A446" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B446" s="6" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C446" s="4" t="s">
         <v>4</v>
@@ -6578,10 +6581,10 @@
     </row>
     <row r="447" spans="1:3" ht="21">
       <c r="A447" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B447" s="6" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C447" s="4" t="s">
         <v>4</v>
@@ -6589,10 +6592,10 @@
     </row>
     <row r="448" spans="1:3" ht="21">
       <c r="A448" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B448" s="6" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C448" s="4" t="s">
         <v>4</v>
@@ -6600,10 +6603,10 @@
     </row>
     <row r="449" spans="1:3" ht="21">
       <c r="A449" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B449" s="6" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C449" s="4" t="s">
         <v>4</v>
@@ -6611,10 +6614,10 @@
     </row>
     <row r="450" spans="1:3" ht="21">
       <c r="A450" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B450" s="6" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C450" s="4" t="s">
         <v>4</v>
@@ -6622,10 +6625,10 @@
     </row>
     <row r="451" spans="1:3" ht="21">
       <c r="A451" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B451" s="6" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C451" s="4" t="s">
         <v>4</v>
@@ -6633,10 +6636,10 @@
     </row>
     <row r="452" spans="1:3" ht="21">
       <c r="A452" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B452" s="6" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="C452" s="4" t="s">
         <v>4</v>
@@ -6644,10 +6647,10 @@
     </row>
     <row r="453" spans="1:3" ht="21">
       <c r="A453" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B453" s="6" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C453" s="4" t="s">
         <v>4</v>
@@ -6655,10 +6658,10 @@
     </row>
     <row r="454" spans="1:3" ht="21">
       <c r="A454" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B454" s="6" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C454" s="4" t="s">
         <v>4</v>
@@ -6666,10 +6669,10 @@
     </row>
     <row r="455" spans="1:3" ht="21">
       <c r="A455" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B455" s="6" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C455" s="4" t="s">
         <v>4</v>
@@ -6677,10 +6680,10 @@
     </row>
     <row r="456" spans="1:3" ht="21">
       <c r="A456" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B456" s="6" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="C456" s="4" t="s">
         <v>4</v>
@@ -6688,10 +6691,10 @@
     </row>
     <row r="457" spans="1:3" ht="21">
       <c r="A457" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B457" s="6" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C457" s="4" t="s">
         <v>4</v>
@@ -6699,10 +6702,10 @@
     </row>
     <row r="458" spans="1:3" ht="21">
       <c r="A458" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B458" s="6" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="C458" s="4" t="s">
         <v>4</v>
@@ -6710,10 +6713,10 @@
     </row>
     <row r="459" spans="1:3" ht="21">
       <c r="A459" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B459" s="6" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C459" s="4" t="s">
         <v>4</v>
@@ -6721,10 +6724,10 @@
     </row>
     <row r="460" spans="1:3" ht="21">
       <c r="A460" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B460" s="6" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C460" s="4" t="s">
         <v>4</v>
@@ -6732,10 +6735,10 @@
     </row>
     <row r="461" spans="1:3" ht="21">
       <c r="A461" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B461" s="6" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C461" s="4" t="s">
         <v>4</v>
@@ -6743,10 +6746,10 @@
     </row>
     <row r="462" spans="1:3" ht="21">
       <c r="A462" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B462" s="6" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C462" s="4" t="s">
         <v>4</v>
@@ -6754,10 +6757,10 @@
     </row>
     <row r="463" spans="1:3" ht="21">
       <c r="A463" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B463" s="6" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C463" s="4" t="s">
         <v>4</v>
@@ -6765,10 +6768,10 @@
     </row>
     <row r="464" spans="1:3" ht="21">
       <c r="A464" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B464" s="6" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C464" s="4" t="s">
         <v>4</v>
@@ -6776,10 +6779,10 @@
     </row>
     <row r="465" spans="1:3" ht="21">
       <c r="A465" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B465" s="6" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="C465" s="4" t="s">
         <v>4</v>
@@ -6787,10 +6790,10 @@
     </row>
     <row r="466" spans="1:3" ht="21">
       <c r="A466" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B466" s="6" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="C466" s="4" t="s">
         <v>4</v>
@@ -6798,10 +6801,10 @@
     </row>
     <row r="467" spans="1:3" ht="21">
       <c r="A467" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B467" s="6" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C467" s="4" t="s">
         <v>4</v>
@@ -6809,10 +6812,10 @@
     </row>
     <row r="468" spans="1:3" ht="21">
       <c r="A468" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B468" s="6" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="C468" s="4" t="s">
         <v>4</v>
@@ -6820,10 +6823,10 @@
     </row>
     <row r="469" spans="1:3" ht="21">
       <c r="A469" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B469" s="6" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="C469" s="4" t="s">
         <v>4</v>
@@ -6840,10 +6843,10 @@
     </row>
     <row r="472" spans="1:3" ht="21">
       <c r="A472" s="5" t="s">
+        <v>452</v>
+      </c>
+      <c r="B472" s="6" t="s">
         <v>453</v>
-      </c>
-      <c r="B472" s="6" t="s">
-        <v>454</v>
       </c>
       <c r="C472" s="4" t="s">
         <v>4</v>
@@ -6851,10 +6854,10 @@
     </row>
     <row r="473" spans="1:3" ht="21">
       <c r="A473" s="5" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B473" s="6" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="C473" s="4" t="s">
         <v>4</v>
@@ -6862,10 +6865,10 @@
     </row>
     <row r="474" spans="1:3" ht="21">
       <c r="A474" s="5" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B474" s="6" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="C474" s="4" t="s">
         <v>4</v>
@@ -6873,10 +6876,10 @@
     </row>
     <row r="475" spans="1:3" ht="21">
       <c r="A475" s="5" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B475" s="6" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="C475" s="4" t="s">
         <v>4</v>
@@ -6884,10 +6887,10 @@
     </row>
     <row r="476" spans="1:3" ht="21">
       <c r="A476" s="5" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B476" s="6" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="C476" s="4" t="s">
         <v>4</v>
@@ -6895,10 +6898,10 @@
     </row>
     <row r="477" spans="1:3" ht="21">
       <c r="A477" s="5" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B477" s="6" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="C477" s="4" t="s">
         <v>4</v>
@@ -6906,10 +6909,10 @@
     </row>
     <row r="478" spans="1:3" ht="21">
       <c r="A478" s="5" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B478" s="6" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="C478" s="4" t="s">
         <v>4</v>
@@ -6917,10 +6920,10 @@
     </row>
     <row r="479" spans="1:3" ht="21">
       <c r="A479" s="5" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B479" s="6" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C479" s="4" t="s">
         <v>4</v>
@@ -6928,10 +6931,10 @@
     </row>
     <row r="480" spans="1:3" ht="21">
       <c r="A480" s="5" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B480" s="6" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C480" s="4" t="s">
         <v>4</v>
@@ -6939,16 +6942,17 @@
     </row>
     <row r="481" spans="1:3" ht="21">
       <c r="A481" s="5" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B481" s="6" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C481" s="4" t="s">
         <v>4</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="C5:C481" xr:uid="{1CA69E14-25B6-42D1-BC52-6BA304F6B535}"/>
   <hyperlinks>
     <hyperlink ref="B6" r:id="rId1" xr:uid="{9492A4AD-FA44-BA4B-B154-E4DBB1951162}"/>
     <hyperlink ref="B7" r:id="rId2" xr:uid="{2D6F1134-3C08-7445-B19A-9B94A18B55C7}"/>
@@ -7004,7 +7008,7 @@
     <hyperlink ref="B62" r:id="rId52" xr:uid="{47F1BB0C-0C5C-0845-8EEC-1560C50D7DA7}"/>
     <hyperlink ref="B63" r:id="rId53" xr:uid="{8E0BFA2E-CCB4-514F-86CD-78176C6CC98A}"/>
     <hyperlink ref="B64" r:id="rId54" xr:uid="{E4DEFB4B-749F-8746-97C7-F2B433664A74}"/>
-    <hyperlink ref="B65" r:id="rId55" xr:uid="{8301BDBD-EB7E-7D41-A777-ED99C3F9D67D}"/>
+    <hyperlink ref="B65" r:id="rId55" display="Print all Subsequences of a string." xr:uid="{8301BDBD-EB7E-7D41-A777-ED99C3F9D67D}"/>
     <hyperlink ref="B66" r:id="rId56" xr:uid="{927AE532-647F-AF4C-A567-40ADA6FCE534}"/>
     <hyperlink ref="B67" r:id="rId57" xr:uid="{05489F52-CC92-EC44-9AD3-773DEC3B1D36}"/>
     <hyperlink ref="B68" r:id="rId58" xr:uid="{13025DF6-C30E-014A-B66C-68C4AAAC1C6E}"/>

--- a/Questions & Problems/FINAL450.xlsx
+++ b/Questions & Problems/FINAL450.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://stevens0-my.sharepoint.com/personal/nharia_stevens_edu/Documents/Stevens after arrival/Course &amp; Data/DSA/Questions &amp; Problems/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="10" documentId="13_ncr:1_{31FA0BCB-19AC-41F6-970D-710C5D28BB10}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{730C42C0-FE4B-4F1A-8C22-B3C427B3D532}"/>
+  <xr:revisionPtr revIDLastSave="32" documentId="13_ncr:1_{31FA0BCB-19AC-41F6-970D-710C5D28BB10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0F31F837-D52E-411B-B525-5CC0898600CF}"/>
   <bookViews>
-    <workbookView xWindow="-21276" yWindow="720" windowWidth="21600" windowHeight="11388" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
+    <workbookView xWindow="16860" yWindow="1800" windowWidth="2400" windowHeight="585" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1352" uniqueCount="468">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1352" uniqueCount="469">
   <si>
     <t>Questions by Love Babbar:</t>
   </si>
@@ -1432,6 +1432,9 @@
   </si>
   <si>
     <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>yes</t>
   </si>
 </sst>
 </file>
@@ -1880,8 +1883,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:C481"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" topLeftCell="A82" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="B50" sqref="B50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.25" defaultRowHeight="15.75"/>
@@ -2334,7 +2337,7 @@
         <v>43</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>4</v>
+        <v>464</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="21">
@@ -2345,7 +2348,7 @@
         <v>44</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>4</v>
+        <v>464</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="21">
@@ -2367,7 +2370,7 @@
         <v>46</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>4</v>
+        <v>464</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="21">
@@ -3326,8 +3329,8 @@
       <c r="B139" s="6" t="s">
         <v>134</v>
       </c>
-      <c r="C139" s="4" t="s">
-        <v>4</v>
+      <c r="C139" s="11" t="s">
+        <v>464</v>
       </c>
     </row>
     <row r="140" spans="1:3" ht="21">
@@ -3348,8 +3351,8 @@
       <c r="B141" s="6" t="s">
         <v>136</v>
       </c>
-      <c r="C141" s="4" t="s">
-        <v>4</v>
+      <c r="C141" s="11" t="s">
+        <v>464</v>
       </c>
     </row>
     <row r="142" spans="1:3" ht="21">
@@ -3359,8 +3362,8 @@
       <c r="B142" s="6" t="s">
         <v>137</v>
       </c>
-      <c r="C142" s="4" t="s">
-        <v>4</v>
+      <c r="C142" s="11" t="s">
+        <v>464</v>
       </c>
     </row>
     <row r="143" spans="1:3" ht="21">
@@ -3403,8 +3406,8 @@
       <c r="B146" s="6" t="s">
         <v>141</v>
       </c>
-      <c r="C146" s="4" t="s">
-        <v>4</v>
+      <c r="C146" s="11" t="s">
+        <v>464</v>
       </c>
     </row>
     <row r="147" spans="1:3" ht="21">
@@ -3480,8 +3483,8 @@
       <c r="B153" s="6" t="s">
         <v>148</v>
       </c>
-      <c r="C153" s="4" t="s">
-        <v>4</v>
+      <c r="C153" s="11" t="s">
+        <v>468</v>
       </c>
     </row>
     <row r="154" spans="1:3" ht="21">
@@ -3513,8 +3516,8 @@
       <c r="B156" s="6" t="s">
         <v>151</v>
       </c>
-      <c r="C156" s="4" t="s">
-        <v>4</v>
+      <c r="C156" s="11" t="s">
+        <v>468</v>
       </c>
     </row>
     <row r="157" spans="1:3" ht="21">
@@ -3726,8 +3729,8 @@
       <c r="B177" s="6" t="s">
         <v>171</v>
       </c>
-      <c r="C177" s="4" t="s">
-        <v>4</v>
+      <c r="C177" s="11" t="s">
+        <v>464</v>
       </c>
     </row>
     <row r="178" spans="1:3" ht="21">
@@ -3748,8 +3751,8 @@
       <c r="B179" s="6" t="s">
         <v>173</v>
       </c>
-      <c r="C179" s="4" t="s">
-        <v>4</v>
+      <c r="C179" s="11" t="s">
+        <v>464</v>
       </c>
     </row>
     <row r="180" spans="1:3" ht="21">
@@ -3770,8 +3773,8 @@
       <c r="B181" s="6" t="s">
         <v>175</v>
       </c>
-      <c r="C181" s="4" t="s">
-        <v>4</v>
+      <c r="C181" s="11" t="s">
+        <v>464</v>
       </c>
     </row>
     <row r="182" spans="1:3" ht="21">

--- a/Questions & Problems/FINAL450.xlsx
+++ b/Questions & Problems/FINAL450.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://stevens0-my.sharepoint.com/personal/nharia_stevens_edu/Documents/Stevens after arrival/Course &amp; Data/DSA/Questions &amp; Problems/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="32" documentId="13_ncr:1_{31FA0BCB-19AC-41F6-970D-710C5D28BB10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0F31F837-D52E-411B-B525-5CC0898600CF}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="8_{E2A6BC68-84A5-432C-9E20-BB9EE6684FCA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E727FE8B-3D38-44F4-B69E-09B5804AC402}"/>
   <bookViews>
-    <workbookView xWindow="16860" yWindow="1800" windowWidth="2400" windowHeight="585" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$C$5:$C$481</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -1881,10 +1882,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
-  <dimension ref="A1:C481"/>
+  <dimension ref="A1:C482"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A82" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="B50" sqref="B50"/>
+    <sheetView tabSelected="1" topLeftCell="A97" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="B110" sqref="B110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.25" defaultRowHeight="15.75"/>
@@ -2336,7 +2337,7 @@
       <c r="B44" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="C44" s="4" t="s">
+      <c r="C44" s="11" t="s">
         <v>464</v>
       </c>
     </row>
@@ -2347,7 +2348,7 @@
       <c r="B45" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="C45" s="4" t="s">
+      <c r="C45" s="11" t="s">
         <v>464</v>
       </c>
     </row>
@@ -2369,7 +2370,7 @@
       <c r="B47" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="C47" s="4" t="s">
+      <c r="C47" s="11" t="s">
         <v>464</v>
       </c>
     </row>
@@ -3395,8 +3396,8 @@
       <c r="B145" s="6" t="s">
         <v>140</v>
       </c>
-      <c r="C145" s="4" t="s">
-        <v>4</v>
+      <c r="C145" s="11" t="s">
+        <v>464</v>
       </c>
     </row>
     <row r="146" spans="1:3" ht="21">
@@ -3484,7 +3485,7 @@
         <v>148</v>
       </c>
       <c r="C153" s="11" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
     </row>
     <row r="154" spans="1:3" ht="21">
@@ -5149,8 +5150,8 @@
       <c r="B311" s="6" t="s">
         <v>300</v>
       </c>
-      <c r="C311" s="4" t="s">
-        <v>4</v>
+      <c r="C311" s="11" t="s">
+        <v>464</v>
       </c>
     </row>
     <row r="312" spans="1:3" ht="21">
@@ -6952,6 +6953,12 @@
       </c>
       <c r="C481" s="4" t="s">
         <v>4</v>
+      </c>
+    </row>
+    <row r="482" spans="1:3">
+      <c r="C482">
+        <f>COUNTIF(C6:C481,"Yes")</f>
+        <v>44</v>
       </c>
     </row>
   </sheetData>

--- a/Questions & Problems/FINAL450.xlsx
+++ b/Questions & Problems/FINAL450.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://stevens0-my.sharepoint.com/personal/nharia_stevens_edu/Documents/Stevens after arrival/Course &amp; Data/DSA/Questions &amp; Problems/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\neelh\OneDrive - stevens.edu\Stevens after arrival\Course &amp; Data\DSA\Questions &amp; Problems\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="8_{E2A6BC68-84A5-432C-9E20-BB9EE6684FCA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E727FE8B-3D38-44F4-B69E-09B5804AC402}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EE3A322-37C3-4B01-BE5E-B6922BB4225C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,6 +23,13 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -1884,18 +1891,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:C482"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A97" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="B110" sqref="B110"/>
+    <sheetView tabSelected="1" topLeftCell="A328" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="B337" sqref="B337"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.25" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
   <cols>
     <col min="1" max="1" width="28.5" customWidth="1"/>
     <col min="2" max="2" width="123" customWidth="1"/>
     <col min="3" max="3" width="27.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="26.25">
+    <row r="1" spans="1:3" ht="24.6">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5412,7 +5419,7 @@
         <v>324</v>
       </c>
       <c r="C336" s="4" t="s">
-        <v>4</v>
+        <v>464</v>
       </c>
     </row>
     <row r="337" spans="1:3" ht="21">
@@ -6958,7 +6965,7 @@
     <row r="482" spans="1:3">
       <c r="C482">
         <f>COUNTIF(C6:C481,"Yes")</f>
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>

--- a/Questions & Problems/FINAL450.xlsx
+++ b/Questions & Problems/FINAL450.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\neelh\OneDrive - stevens.edu\Stevens after arrival\Course &amp; Data\DSA\Questions &amp; Problems\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://stevens0-my.sharepoint.com/personal/nharia_stevens_edu/Documents/Stevens after arrival/Course &amp; Data/DSA/Questions &amp; Problems/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EE3A322-37C3-4B01-BE5E-B6922BB4225C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="12" documentId="13_ncr:1_{8EE3A322-37C3-4B01-BE5E-B6922BB4225C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9B34C424-FB62-475A-AFA0-2E2EDE52BA1A}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -19,7 +19,6 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$C$5:$C$481</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -1519,7 +1518,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1529,6 +1528,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -1546,7 +1551,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1573,6 +1578,12 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Good" xfId="2" builtinId="26"/>
@@ -1581,6 +1592,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFC6EFCE"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1891,8 +1907,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:C482"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A328" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="B337" sqref="B337"/>
+    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="I65" sqref="I65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -2421,8 +2437,8 @@
       <c r="B51" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="C51" s="4" t="s">
-        <v>4</v>
+      <c r="C51" s="13" t="s">
+        <v>464</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="21">
@@ -2443,8 +2459,8 @@
       <c r="B53" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="C53" s="4" t="s">
-        <v>4</v>
+      <c r="C53" s="12" t="s">
+        <v>464</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="21">
@@ -6965,7 +6981,7 @@
     <row r="482" spans="1:3">
       <c r="C482">
         <f>COUNTIF(C6:C481,"Yes")</f>
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>
